--- a/Варианты kompege/Л. Шастина  Д. Бахтиева/1/22.xlsx
+++ b/Варианты kompege/Л. Шастина  Д. Бахтиева/1/22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirik\Documents\GitHub\Егэ Инфа\EGE-Kirian\Варианты kompege\Л. Шастина  Д. Бахтиева\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5CAA0C-FFF4-43F0-A950-2BF04E9B96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E24ECAD-5489-44F6-BE50-E13BFD67FB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
